--- a/table/A2A_bad.xlsx
+++ b/table/A2A_bad.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>no transfer</t>
   </si>
@@ -48,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -95,12 +95,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -403,23 +404,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -438,8 +440,26 @@
       <c r="G2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -464,9 +484,35 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f>B3*100</f>
+        <v>23.448501719338498</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M8" si="0">C3*100</f>
+        <v>26.972326838054698</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N8" si="1">D3*100</f>
+        <v>29.641395120353696</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O8" si="2">E3*100</f>
+        <v>31.6243654822335</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P8" si="3">F3*100</f>
+        <v>32.590469952513502</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q8" si="4">G3*100</f>
+        <v>34.439168167676399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,9 +537,35 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L8" si="5">B4*100</f>
+        <v>17.3522187653512</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>18.434583265105601</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>17.6633371540855</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="2"/>
+        <v>18.1791386933028</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="3"/>
+        <v>18.590142459472698</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="4"/>
+        <v>19.1648927460291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -518,9 +590,35 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="5"/>
+        <v>21.7258883248731</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>25.185852300638601</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>28.454232847552003</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
+        <v>31.458981496643201</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="3"/>
+        <v>31.737350581300198</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="4"/>
+        <v>32.4365482233503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -545,9 +643,35 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="5"/>
+        <v>21.779924676600601</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>25.598493532012402</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>28.837399705256299</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
+        <v>31.293597511052901</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="3"/>
+        <v>32.128704765023706</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="4"/>
+        <v>33.7809071557229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -572,9 +696,35 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="5"/>
+        <v>22.1336171606353</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>26.189618470607499</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>29.286065171115101</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>31.524480104797796</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="3"/>
+        <v>32.863926641558898</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="4"/>
+        <v>34.370394629114095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -599,19 +749,45 @@
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>25.138365809726498</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>27.886032421811002</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>30.314393319142003</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="2"/>
+        <v>32.143441951858499</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="3"/>
+        <v>33.0784345832651</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="4"/>
+        <v>34.783035860487999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
@@ -630,8 +806,26 @@
       <c r="G15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -653,8 +847,35 @@
       <c r="G16" s="1">
         <v>2.4015139088569001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <f>B16*100</f>
+        <v>1.5472096690378501</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16:M21" si="6">C16*100</f>
+        <v>2.0826915286098799</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" ref="N16:N21" si="7">D16*100</f>
+        <v>2.4011789352434398</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ref="O16:O21" si="8">E16*100</f>
+        <v>2.38114755188003</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" ref="P16:P21" si="9">F16*100</f>
+        <v>2.6448772004321102</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" ref="Q16:Q21" si="10">G16*100</f>
+        <v>2.4015139088569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -676,8 +897,35 @@
       <c r="G17" s="2">
         <v>1.4374130144934501E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ref="L17:L21" si="11">B17*100</f>
+        <v>1.04741043403125</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.57023720893119</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="7"/>
+        <v>1.14910837501658</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4732496064462</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6543540733389699</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.43741301449345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -699,8 +947,35 @@
       <c r="G18" s="1">
         <v>3.1707822350768397E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="11"/>
+        <v>2.4541325184068699</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="6"/>
+        <v>2.8279934812470602</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1251196159063599</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="8"/>
+        <v>2.37791421739119</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6214268313489499</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="10"/>
+        <v>3.1707822350768398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -722,8 +997,35 @@
       <c r="G19" s="1">
         <v>2.2332047972794901E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="11"/>
+        <v>2.0770141493648397</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="6"/>
+        <v>2.3379278638723697</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6797173510535099</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="8"/>
+        <v>2.2623431905884996</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="9"/>
+        <v>2.56196245005447</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="10"/>
+        <v>2.2332047972794902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -745,8 +1047,35 @@
       <c r="G20" s="1">
         <v>2.2975918410729199E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="11"/>
+        <v>1.8279414245421499</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0418723468909201</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="7"/>
+        <v>2.3895804998130701</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="8"/>
+        <v>2.3555328882286499</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="9"/>
+        <v>2.3708777203521501</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="10"/>
+        <v>2.2975918410729199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -767,6 +1096,33 @@
       </c>
       <c r="G21" s="4">
         <v>2.4597467220005099E-2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="11"/>
+        <v>1.3124896211189401</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="6"/>
+        <v>1.90976777296716</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="7"/>
+        <v>2.46640227512037</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="8"/>
+        <v>2.5159244183429301</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="9"/>
+        <v>2.70372398186309</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="10"/>
+        <v>2.45974672200051</v>
       </c>
     </row>
   </sheetData>
